--- a/data/entities/entity_TODAY_THA_D_wet_markets.xlsx
+++ b/data/entities/entity_TODAY_THA_D_wet_markets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkalomalos\Projects\unu\climada-unu\data\entities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA4BA1B-3E21-4FDF-84A0-0CC54FBFC0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5DF6B1-4C87-498C-958E-43B30F304499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">assets!$A$1:$I$367</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">impact_functions!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3545,28 +3545,28 @@
     <t>intensity_unit</t>
   </si>
   <si>
-    <t>Soil, water, pest management</t>
-  </si>
-  <si>
-    <t>0.01 0.67 0.51</t>
-  </si>
-  <si>
-    <t>Climate smart agriculture/Precision agriculture</t>
-  </si>
-  <si>
-    <t>0.7 0.88 0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improvement of water storage systems </t>
-  </si>
-  <si>
-    <t>0.48 0.51 0.55</t>
-  </si>
-  <si>
-    <t>Improvement of water distribution facilities</t>
-  </si>
-  <si>
     <t>0.81 0.8 0.82</t>
+  </si>
+  <si>
+    <t>SWP</t>
+  </si>
+  <si>
+    <t>0.38 0.75 0.6</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>0.62 0.82 0.92</t>
+  </si>
+  <si>
+    <t>WSS</t>
+  </si>
+  <si>
+    <t>0.7 0.69 0.71</t>
+  </si>
+  <si>
+    <t>WDF</t>
   </si>
 </sst>
 </file>
@@ -4250,9 +4250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="K309" sqref="K309"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="12.75"/>
   <cols>
@@ -16971,8 +16969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945CBEDD-1762-4299-8530-6622A7B86EDC}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="K38" sqref="A30:K38"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -17056,10 +17054,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="24" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C2" s="44">
         <v>6616532.7210103311</v>
@@ -17077,7 +17075,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="24">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="I2" s="24">
         <v>0</v>
@@ -17112,10 +17110,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="24" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C3" s="44">
         <v>12870471.774193544</v>
@@ -17133,7 +17131,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="24">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="I3" s="24">
         <v>0</v>
@@ -17168,10 +17166,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="24" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C4" s="44">
         <v>21420000</v>
@@ -17189,7 +17187,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="24">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="I4" s="24">
         <v>0</v>
@@ -17224,10 +17222,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="24" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C5" s="44">
         <v>105000000</v>
@@ -17245,7 +17243,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="24">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="I5" s="24">
         <v>0</v>
